--- a/results/benchmarks.xlsx
+++ b/results/benchmarks.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yue/Desktop/597project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yue/Desktop/597project/code/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="24820" windowHeight="15540" tabRatio="500" firstSheet="3" activeTab="13"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="24780" windowHeight="15540" tabRatio="500" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="swift_fib" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="quicksort_compare" sheetId="22" r:id="rId8"/>
     <sheet name="openmp_mdlite" sheetId="9" r:id="rId9"/>
     <sheet name="cilk_mdlite" sheetId="19" r:id="rId10"/>
-    <sheet name="swift_nap" sheetId="12" r:id="rId11"/>
-    <sheet name="openmp_nap" sheetId="14" r:id="rId12"/>
-    <sheet name="cilk_nap" sheetId="16" r:id="rId13"/>
-    <sheet name="nap_compare" sheetId="23" r:id="rId14"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId15"/>
+    <sheet name="mdlite_compare" sheetId="24" r:id="rId11"/>
+    <sheet name="swift_nap" sheetId="12" r:id="rId12"/>
+    <sheet name="openmp_nap" sheetId="14" r:id="rId13"/>
+    <sheet name="cilk_nap" sheetId="16" r:id="rId14"/>
+    <sheet name="nap_compare" sheetId="23" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="23">
   <si>
     <t>threads/processes</t>
   </si>
@@ -331,7 +332,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -487,8 +487,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116513456"/>
-        <c:axId val="261176112"/>
+        <c:axId val="196490208"/>
+        <c:axId val="196144560"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -613,11 +613,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="220745888"/>
-        <c:axId val="261191216"/>
+        <c:axId val="-112304112"/>
+        <c:axId val="-112701040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116513456"/>
+        <c:axId val="196490208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -666,7 +666,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -733,7 +732,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261176112"/>
+        <c:crossAx val="196144560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -741,7 +740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="261176112"/>
+        <c:axId val="196144560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -820,7 +819,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -880,12 +878,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116513456"/>
+        <c:crossAx val="196490208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="261191216"/>
+        <c:axId val="-112701040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,7 +924,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -987,12 +984,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220745888"/>
+        <c:crossAx val="-112304112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="220745888"/>
+        <c:axId val="-112304112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1002,7 +999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261191216"/>
+        <c:crossAx val="-112701040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1019,7 +1016,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1361,8 +1357,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="279165024"/>
-        <c:axId val="-150840080"/>
+        <c:axId val="-140093936"/>
+        <c:axId val="-92392832"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1493,11 +1489,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="299575936"/>
-        <c:axId val="300580192"/>
+        <c:axId val="-92400096"/>
+        <c:axId val="-92393728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="279165024"/>
+        <c:axId val="-140093936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1612,7 +1608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-150840080"/>
+        <c:crossAx val="-92392832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1620,7 +1616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-150840080"/>
+        <c:axId val="-92392832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1760,12 +1756,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="279165024"/>
+        <c:crossAx val="-140093936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300580192"/>
+        <c:axId val="-92393728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1867,12 +1863,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299575936"/>
+        <c:crossAx val="-92400096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="299575936"/>
+        <c:axId val="-92400096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1882,7 +1878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="300580192"/>
+        <c:crossAx val="-92393728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2087,7 +2083,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2249,8 +2244,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-149537216"/>
-        <c:axId val="-149506608"/>
+        <c:axId val="199074720"/>
+        <c:axId val="-112590320"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2381,11 +2376,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-149474032"/>
-        <c:axId val="-149490480"/>
+        <c:axId val="198547424"/>
+        <c:axId val="-112535104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-149537216"/>
+        <c:axId val="199074720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2433,7 +2428,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2500,7 +2494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-149506608"/>
+        <c:crossAx val="-112590320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2508,7 +2502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-149506608"/>
+        <c:axId val="-112590320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2587,7 +2581,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2648,12 +2641,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-149537216"/>
+        <c:crossAx val="199074720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-149490480"/>
+        <c:axId val="-112535104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2694,7 +2687,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2755,12 +2747,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-149474032"/>
+        <c:crossAx val="198547424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-149474032"/>
+        <c:axId val="198547424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2770,7 +2762,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-149490480"/>
+        <c:crossAx val="-112535104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2787,7 +2779,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2999,7 +2990,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3161,8 +3151,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="299617936"/>
-        <c:axId val="275466720"/>
+        <c:axId val="-112448976"/>
+        <c:axId val="-112694240"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3293,11 +3283,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-166441168"/>
-        <c:axId val="279461840"/>
+        <c:axId val="143987632"/>
+        <c:axId val="-112300960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="299617936"/>
+        <c:axId val="-112448976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3345,7 +3335,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3412,7 +3401,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275466720"/>
+        <c:crossAx val="-112694240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3420,7 +3409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="275466720"/>
+        <c:axId val="-112694240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3499,7 +3488,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3560,12 +3548,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299617936"/>
+        <c:crossAx val="-112448976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279461840"/>
+        <c:axId val="-112300960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3606,7 +3594,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3667,12 +3654,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-166441168"/>
+        <c:crossAx val="143987632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-166441168"/>
+        <c:axId val="143987632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3682,7 +3669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279461840"/>
+        <c:crossAx val="-112300960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3699,7 +3686,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3871,7 +3857,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4033,8 +4018,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-115506272"/>
-        <c:axId val="-88654672"/>
+        <c:axId val="198503824"/>
+        <c:axId val="198518592"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4278,11 +4263,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-88659280"/>
-        <c:axId val="-88662240"/>
+        <c:axId val="196106784"/>
+        <c:axId val="196788576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-115506272"/>
+        <c:axId val="198503824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4330,7 +4315,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4397,7 +4381,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-88654672"/>
+        <c:crossAx val="198518592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4405,7 +4389,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-88654672"/>
+        <c:axId val="198518592"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4486,7 +4470,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4547,12 +4530,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-115506272"/>
+        <c:crossAx val="198503824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-88662240"/>
+        <c:axId val="196788576"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4563,12 +4546,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-88659280"/>
+        <c:crossAx val="196106784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-88659280"/>
+        <c:axId val="196106784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4578,7 +4561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-88662240"/>
+        <c:crossAx val="196788576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4595,7 +4578,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4889,8 +4871,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="281792240"/>
-        <c:axId val="281795600"/>
+        <c:axId val="196753856"/>
+        <c:axId val="196686704"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5021,11 +5003,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="281809456"/>
-        <c:axId val="281800960"/>
+        <c:axId val="-139997072"/>
+        <c:axId val="196565936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="281792240"/>
+        <c:axId val="196753856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5140,7 +5122,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281795600"/>
+        <c:crossAx val="196686704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5148,7 +5130,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="281795600"/>
+        <c:axId val="196686704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5288,12 +5270,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281792240"/>
+        <c:crossAx val="196753856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="281800960"/>
+        <c:axId val="196565936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5395,12 +5377,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="281809456"/>
+        <c:crossAx val="-139997072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="281809456"/>
+        <c:axId val="-139997072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5410,7 +5392,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="281800960"/>
+        <c:crossAx val="196565936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5425,6 +5407,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5689,8 +5703,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-116932032"/>
-        <c:axId val="-117008656"/>
+        <c:axId val="-92725856"/>
+        <c:axId val="-92741728"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5821,11 +5835,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-116844528"/>
-        <c:axId val="-117018016"/>
+        <c:axId val="-92404320"/>
+        <c:axId val="-92426560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-116932032"/>
+        <c:axId val="-92725856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5940,7 +5954,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-117008656"/>
+        <c:crossAx val="-92741728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5948,7 +5962,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-117008656"/>
+        <c:axId val="-92741728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6088,12 +6102,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-116932032"/>
+        <c:crossAx val="-92725856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-117018016"/>
+        <c:axId val="-92426560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6195,12 +6209,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-116844528"/>
+        <c:crossAx val="-92404320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-116844528"/>
+        <c:axId val="-92404320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6210,7 +6224,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-117018016"/>
+        <c:crossAx val="-92426560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6225,6 +6239,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6297,7 +6343,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
-              <a:t>sleep(0) * 2,000,000 </a:t>
+              <a:t>mdlite</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+              <a:t> </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
@@ -6317,7 +6367,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
-              <a:t>swift</a:t>
+              <a:t>openmp</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1800"/>
           </a:p>
@@ -6363,39 +6413,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>swift_nap!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>OpenMP</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -6423,38 +6441,41 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>swift_nap!$A$2:$A$11</c:f>
+              <c:f>mdlite_compare!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>12.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>16.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>32.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>48.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>64.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6462,39 +6483,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>swift_nap!$B$2:$B$11</c:f>
+              <c:f>mdlite_compare!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>86493.96704579855</c:v>
+                  <c:v>555320.2802358267</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180717.4482696304</c:v>
+                  <c:v>1.04216436528636E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>177698.8005330964</c:v>
+                  <c:v>1.79633151919717E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>178922.8842368939</c:v>
+                  <c:v>2.31920086924576E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>167014.6137787056</c:v>
+                  <c:v>2.87901560237881E6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>163853.8423726037</c:v>
+                  <c:v>3.78753461001782E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>170299.727520436</c:v>
+                  <c:v>4.57345233715477E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>130369.5978097908</c:v>
+                  <c:v>5.97944005414024E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>115727.3463719477</c:v>
+                  <c:v>8.58498776242188E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82607.07942670687</c:v>
+                  <c:v>1.20243866585823E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.05271385684618E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6511,8 +6535,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="296163584"/>
-        <c:axId val="234738944"/>
+        <c:axId val="-58691776"/>
+        <c:axId val="-58566080"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6520,6 +6544,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Cilk Plus</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -6546,75 +6573,84 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>swift_nap!$A$2:$A$10</c:f>
+              <c:f>mdlite_compare!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>12.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>16.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>32.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>swift_nap!$C$2:$C$11</c:f>
+              <c:f>mdlite_compare!$C$2:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>23.123</c:v>
+                  <c:v>554426.9033182091</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.067</c:v>
+                  <c:v>1.09499862308029E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.255</c:v>
+                  <c:v>2.15438661984581E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.178</c:v>
+                  <c:v>2.98223369318531E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.975</c:v>
+                  <c:v>3.95417553423482E6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.206</c:v>
+                  <c:v>5.4115776021784E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.744</c:v>
+                  <c:v>6.97879489681206E6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.341</c:v>
+                  <c:v>1.04075892973764E7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.282</c:v>
+                  <c:v>1.28119505775163E7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.211</c:v>
+                  <c:v>1.65322341161084E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.78618092548107E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6631,11 +6667,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="269229312"/>
-        <c:axId val="296285008"/>
+        <c:axId val="-58651792"/>
+        <c:axId val="-58627792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="296163584"/>
+        <c:axId val="-58691776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6750,7 +6786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234738944"/>
+        <c:crossAx val="-58566080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6758,7 +6794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="234738944"/>
+        <c:axId val="-58566080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6898,119 +6934,27 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="296163584"/>
+        <c:crossAx val="-58691776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="296285008"/>
+        <c:axId val="-58627792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="2000" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" baseline="0"/>
-                  <a:t>(s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="2000"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="269229312"/>
+        <c:crossAx val="-58651792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="269229312"/>
+        <c:axId val="-58651792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7020,7 +6964,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="296285008"/>
+        <c:crossAx val="-58627792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7035,6 +6979,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -7107,11 +7083,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
-              <a:t>sleep(0) * 2,000,000</a:t>
+              <a:t>sleep(0) * 2,000,000 </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
-              <a:t> benchmark</a:t>
+              <a:t>benchmark</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
@@ -7127,13 +7103,12 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
-              <a:t>openmp</a:t>
+              <a:t>swift</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1800"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7174,7 +7149,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>openmp_nap!$A$3:$A$11</c:f>
+              <c:f>swift_nap!$A$2:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -7233,41 +7208,38 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>openmp_nap!$A$2:$A$12</c:f>
+              <c:f>swift_nap!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.0</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.0</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>64.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7275,42 +7247,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>openmp_nap!$B$2:$B$12</c:f>
+              <c:f>swift_nap!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>17976.05381110137</c:v>
+                  <c:v>86493.96704579855</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35904.41175638979</c:v>
+                  <c:v>180717.4482696304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71785.95266635282</c:v>
+                  <c:v>177698.8005330964</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107272.0759361862</c:v>
+                  <c:v>178922.8842368939</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143205.6747826335</c:v>
+                  <c:v>167014.6137787056</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>215277.3973048777</c:v>
+                  <c:v>163853.8423726037</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>285849.8602194184</c:v>
+                  <c:v>170299.727520436</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>434932.6604635121</c:v>
+                  <c:v>130369.5978097908</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>592921.466365937</c:v>
+                  <c:v>115727.3463719477</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>846691.2997388804</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.14726789623191E6</c:v>
+                  <c:v>82607.07942670687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7327,8 +7296,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-210302976"/>
-        <c:axId val="-210294544"/>
+        <c:axId val="-112628544"/>
+        <c:axId val="198590768"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7362,7 +7331,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>openmp_nap!$A$3:$A$11</c:f>
+              <c:f>swift_nap!$A$2:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -7398,42 +7367,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>openmp_nap!$C$2:$C$12</c:f>
+              <c:f>swift_nap!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>111.259124</c:v>
+                  <c:v>23.123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.703461</c:v>
+                  <c:v>11.067</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.860604</c:v>
+                  <c:v>11.255</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.644181</c:v>
+                  <c:v>11.178</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.965927</c:v>
+                  <c:v>11.975</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.290339</c:v>
+                  <c:v>12.206</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.99668</c:v>
+                  <c:v>11.744</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.598413</c:v>
+                  <c:v>15.341</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.373128</c:v>
+                  <c:v>17.282</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.362136</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.743272</c:v>
+                  <c:v>24.211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7450,11 +7416,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-210275360"/>
-        <c:axId val="-210284096"/>
+        <c:axId val="196922224"/>
+        <c:axId val="-113108944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-210302976"/>
+        <c:axId val="-112628544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7502,7 +7468,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7569,7 +7534,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-210294544"/>
+        <c:crossAx val="198590768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7577,7 +7542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-210294544"/>
+        <c:axId val="198590768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7656,7 +7621,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7717,12 +7681,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-210302976"/>
+        <c:crossAx val="-112628544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-210284096"/>
+        <c:axId val="-113108944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7763,7 +7727,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7824,12 +7787,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-210275360"/>
+        <c:crossAx val="196922224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-210275360"/>
+        <c:axId val="196922224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7839,7 +7802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-210284096"/>
+        <c:crossAx val="-113108944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7946,21 +7909,12 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
-              <a:t>intel</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
-              <a:t>cilk</a:t>
+              <a:t>openmp</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1800"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8001,7 +7955,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>cilk_nap!$A$3:$A$11</c:f>
+              <c:f>openmp_nap!$A$3:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -8060,7 +8014,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>cilk_nap!$A$2:$A$12</c:f>
+              <c:f>openmp_nap!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -8102,42 +8056,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>cilk_nap!$B$2:$B$12</c:f>
+              <c:f>openmp_nap!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>18133.23446610349</c:v>
+                  <c:v>17976.05381110137</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36271.15875779188</c:v>
+                  <c:v>35904.41175638979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72612.95617002092</c:v>
+                  <c:v>71785.95266635282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>108651.4711789478</c:v>
+                  <c:v>107272.0759361862</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>144141.7755441568</c:v>
+                  <c:v>143205.6747826335</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>251255.3975940788</c:v>
+                  <c:v>215277.3973048777</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>335580.998934027</c:v>
+                  <c:v>285849.8602194184</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>492397.0207025865</c:v>
+                  <c:v>434932.6604635121</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>697997.9325301238</c:v>
+                  <c:v>592921.466365937</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0190402576949E6</c:v>
+                  <c:v>846691.2997388804</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.32166130182317E6</c:v>
+                  <c:v>1.14726789623191E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8154,8 +8108,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="314375984"/>
-        <c:axId val="-194618640"/>
+        <c:axId val="-55114496"/>
+        <c:axId val="-65887664"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8189,7 +8143,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>cilk_nap!$A$3:$A$11</c:f>
+              <c:f>openmp_nap!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -8225,42 +8179,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>cilk_nap!$C$2:$C$12</c:f>
+              <c:f>openmp_nap!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>110.294719</c:v>
+                  <c:v>111.259124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.140229</c:v>
+                  <c:v>55.703461</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.543294</c:v>
+                  <c:v>27.860604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.407482</c:v>
+                  <c:v>18.644181</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.875228</c:v>
+                  <c:v>13.965927</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.960028</c:v>
+                  <c:v>9.290339</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.959813</c:v>
+                  <c:v>6.99668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.061763</c:v>
+                  <c:v>4.598413</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.865338</c:v>
+                  <c:v>3.373128</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.962631</c:v>
+                  <c:v>2.362136</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.513247</c:v>
+                  <c:v>1.743272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8277,11 +8231,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-194378592"/>
-        <c:axId val="-201290992"/>
+        <c:axId val="-92363504"/>
+        <c:axId val="-92881664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="314375984"/>
+        <c:axId val="-55114496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8329,7 +8283,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8396,7 +8349,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-194618640"/>
+        <c:crossAx val="-65887664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8404,7 +8357,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-194618640"/>
+        <c:axId val="-65887664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8483,7 +8436,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8544,12 +8496,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314375984"/>
+        <c:crossAx val="-55114496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-201290992"/>
+        <c:axId val="-92881664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8590,7 +8542,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8651,12 +8602,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-194378592"/>
+        <c:crossAx val="-92363504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-194378592"/>
+        <c:axId val="-92363504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8666,7 +8617,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-201290992"/>
+        <c:crossAx val="-92881664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8719,6 +8670,1645 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+              <a:t>sleep(0) * 2,000,000</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+              <a:t> benchmark</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+              <a:t>using</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+              <a:t>intel</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+              <a:t>cilk</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cilk_nap!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>cilk_nap!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cilk_nap!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18133.23446610349</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36271.15875779188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72612.95617002092</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108651.4711789478</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144141.7755441568</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>251255.3975940788</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>335580.998934027</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>492397.0207025865</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>697997.9325301238</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0190402576949E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.32166130182317E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-92796432"/>
+        <c:axId val="-140157088"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>cilk_nap!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>cilk_nap!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>110.294719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.140229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.543294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.407482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.875228</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.960028</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.959813</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.061763</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.865338</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.962631</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.513247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-140322448"/>
+        <c:axId val="-140319680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-92796432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+                  <a:t>of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+                  <a:t>threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-140157088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-140157088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+                  <a:t>of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+                  <a:t>tasks</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+                  <a:t>per</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+                  <a:t>second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-92796432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-140319680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="2000" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000" baseline="0"/>
+                  <a:t>(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-140322448"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-140322448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-140319680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:t>recursive fib(39)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:t>benchmark</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:t>using</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:t>swift/t</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>throughput</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>swift_fib!$A$43:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>swift_fib!$B$43:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>53327.9108663258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128843.189863186</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130952.4339362002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>131125.1789075524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128299.6250713844</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127923.0499027147</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125051.8944904492</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>108661.8606300709</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84138.52529644203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61826.90046714179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-188039344"/>
+        <c:axId val="-188466656"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>swift_fib!$A$43:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>swift_fib!$C$43:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3837.921</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1588.507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1562.921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1560.862</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1595.237</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1599.933</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1636.667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1883.534</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2432.516</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3310.344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-113163008"/>
+        <c:axId val="155451648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-188039344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+                  <a:t>processes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-188466656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-188466656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+                  <a:t>of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+                  <a:t>tasks</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+                  <a:t>per</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+                  <a:t>second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-188039344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="155451648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
+                  <a:t>(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-113163008"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-113163008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="155451648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8977,8 +10567,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-88108208"/>
-        <c:axId val="-88099280"/>
+        <c:axId val="198285472"/>
+        <c:axId val="198560224"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9222,11 +10812,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-66044592"/>
-        <c:axId val="-66052608"/>
+        <c:axId val="-112475696"/>
+        <c:axId val="143982224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-88108208"/>
+        <c:axId val="198285472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9341,7 +10931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-88099280"/>
+        <c:crossAx val="198560224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9349,7 +10939,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-88099280"/>
+        <c:axId val="198560224"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -9491,12 +11081,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-88108208"/>
+        <c:crossAx val="198285472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-66052608"/>
+        <c:axId val="143982224"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -9507,12 +11097,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-66044592"/>
+        <c:crossAx val="-112475696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-66044592"/>
+        <c:axId val="-112475696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9522,828 +11112,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-66052608"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-              <a:t>recursive fib(39)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-              <a:t>benchmark</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-              <a:t>using</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
-              <a:t>swift/t</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1600"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>throughput</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>swift_fib!$A$43:$A$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>swift_fib!$B$43:$B$52</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>53327.9108663258</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128843.189863186</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>130952.4339362002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>131125.1789075524</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>128299.6250713844</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>127923.0499027147</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>125051.8944904492</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>108661.8606300709</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>84138.52529644203</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>61826.90046714179</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-150019168"/>
-        <c:axId val="-149120608"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>time</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>swift_fib!$A$43:$A$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>swift_fib!$C$43:$C$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>3837.921</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1588.507</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1562.921</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1560.862</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1595.237</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1599.933</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1636.667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1883.534</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2432.516</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3310.344</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="198985200"/>
-        <c:axId val="300896272"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="-150019168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-                  <a:t>#</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-                  <a:t>of</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-                  <a:t>processes</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1600"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-149120608"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-149120608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
-                  <a:t>#</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
-                  <a:t>of</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
-                  <a:t>tasks</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
-                  <a:t>per</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
-                  <a:t>second</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1800"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-150019168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="300896272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200" baseline="0"/>
-                  <a:t>(s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1200"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="198985200"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="198985200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="300896272"/>
+        <c:crossAx val="143982224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10500,7 +11269,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10662,8 +11430,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="192119248"/>
-        <c:axId val="262945696"/>
+        <c:axId val="143465856"/>
+        <c:axId val="143457824"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10794,11 +11562,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="233467280"/>
-        <c:axId val="262675232"/>
+        <c:axId val="-112768224"/>
+        <c:axId val="-112311120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192119248"/>
+        <c:axId val="143465856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10847,7 +11615,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10914,7 +11681,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262945696"/>
+        <c:crossAx val="143457824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10922,7 +11689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="262945696"/>
+        <c:axId val="143457824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11001,7 +11768,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11062,12 +11828,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192119248"/>
+        <c:crossAx val="143465856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="262675232"/>
+        <c:axId val="-112311120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11108,7 +11874,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11169,12 +11934,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233467280"/>
+        <c:crossAx val="-112768224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="233467280"/>
+        <c:axId val="-112768224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11184,7 +11949,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262675232"/>
+        <c:crossAx val="-112311120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11201,7 +11966,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11381,7 +12145,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11543,8 +12306,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-186044304"/>
-        <c:axId val="-194420144"/>
+        <c:axId val="-112904896"/>
+        <c:axId val="-112490480"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11675,11 +12438,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-186295408"/>
-        <c:axId val="-194228000"/>
+        <c:axId val="-112577968"/>
+        <c:axId val="-112623648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-186044304"/>
+        <c:axId val="-112904896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11728,7 +12491,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11795,7 +12557,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-194420144"/>
+        <c:crossAx val="-112490480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11803,7 +12565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-194420144"/>
+        <c:axId val="-112490480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11882,7 +12644,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11943,12 +12704,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-186044304"/>
+        <c:crossAx val="-112904896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-194228000"/>
+        <c:axId val="-112623648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11989,7 +12750,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12050,12 +12810,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-186295408"/>
+        <c:crossAx val="-112577968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-186295408"/>
+        <c:axId val="-112577968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12065,7 +12825,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-194228000"/>
+        <c:crossAx val="-112623648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12082,7 +12842,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12222,7 +12981,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12384,8 +13142,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-193584480"/>
-        <c:axId val="-193631136"/>
+        <c:axId val="-140097120"/>
+        <c:axId val="-140202752"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12516,11 +13274,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-193544416"/>
-        <c:axId val="-193552608"/>
+        <c:axId val="-139848624"/>
+        <c:axId val="266059920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-193584480"/>
+        <c:axId val="-140097120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12569,7 +13327,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12636,7 +13393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-193631136"/>
+        <c:crossAx val="-140202752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12644,7 +13401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-193631136"/>
+        <c:axId val="-140202752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12723,7 +13480,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12784,12 +13540,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-193584480"/>
+        <c:crossAx val="-140097120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-193552608"/>
+        <c:axId val="266059920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12830,7 +13586,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12891,12 +13646,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-193544416"/>
+        <c:crossAx val="-139848624"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-193544416"/>
+        <c:axId val="-139848624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12906,7 +13661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-193552608"/>
+        <c:crossAx val="266059920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12923,7 +13678,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13115,7 +13869,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13277,8 +14030,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="275842304"/>
-        <c:axId val="301874128"/>
+        <c:axId val="-139664176"/>
+        <c:axId val="-140269568"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13409,11 +14162,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="310985792"/>
-        <c:axId val="311161072"/>
+        <c:axId val="-140455568"/>
+        <c:axId val="-140312240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="275842304"/>
+        <c:axId val="-139664176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13462,7 +14215,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13529,7 +14281,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301874128"/>
+        <c:crossAx val="-140269568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13537,7 +14289,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="301874128"/>
+        <c:axId val="-140269568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13616,7 +14368,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13677,12 +14428,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275842304"/>
+        <c:crossAx val="-139664176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="311161072"/>
+        <c:axId val="-140312240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13723,7 +14474,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13784,12 +14534,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310985792"/>
+        <c:crossAx val="-140455568"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="310985792"/>
+        <c:axId val="-140455568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13799,7 +14549,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="311161072"/>
+        <c:crossAx val="-140312240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13816,7 +14566,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14152,8 +14901,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-109793552"/>
-        <c:axId val="311238704"/>
+        <c:axId val="-112554480"/>
+        <c:axId val="-112515344"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14313,11 +15062,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-111947728"/>
-        <c:axId val="-111687936"/>
+        <c:axId val="196384528"/>
+        <c:axId val="144003184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-109793552"/>
+        <c:axId val="-112554480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14433,7 +15182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311238704"/>
+        <c:crossAx val="-112515344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14441,7 +15190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311238704"/>
+        <c:axId val="-112515344"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -14590,12 +15339,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-109793552"/>
+        <c:crossAx val="-112554480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-111687936"/>
+        <c:axId val="144003184"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -14606,12 +15355,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-111947728"/>
+        <c:crossAx val="196384528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-111947728"/>
+        <c:axId val="196384528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14621,7 +15370,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-111687936"/>
+        <c:crossAx val="144003184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14794,7 +15543,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14950,8 +15698,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-144421312"/>
-        <c:axId val="-185993696"/>
+        <c:axId val="-112225824"/>
+        <c:axId val="198330896"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -15076,11 +15824,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-160818640"/>
-        <c:axId val="-194187424"/>
+        <c:axId val="-113090048"/>
+        <c:axId val="-112221312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-144421312"/>
+        <c:axId val="-112225824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15128,7 +15876,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15195,7 +15942,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-185993696"/>
+        <c:crossAx val="198330896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15203,7 +15950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-185993696"/>
+        <c:axId val="198330896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15282,7 +16029,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15343,12 +16089,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-144421312"/>
+        <c:crossAx val="-112225824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-194187424"/>
+        <c:axId val="-112221312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15389,7 +16135,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15450,12 +16195,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-160818640"/>
+        <c:crossAx val="-113090048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-160818640"/>
+        <c:axId val="-113090048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15465,7 +16210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-194187424"/>
+        <c:crossAx val="-112221312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15482,7 +16227,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15792,8 +16536,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="225356960"/>
-        <c:axId val="158488672"/>
+        <c:axId val="-140507232"/>
+        <c:axId val="-140165728"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -15924,11 +16668,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196162464"/>
-        <c:axId val="158472912"/>
+        <c:axId val="-139712320"/>
+        <c:axId val="-139731232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="225356960"/>
+        <c:axId val="-140507232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16043,7 +16787,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158488672"/>
+        <c:crossAx val="-140165728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16051,7 +16795,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158488672"/>
+        <c:axId val="-140165728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16191,12 +16935,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225356960"/>
+        <c:crossAx val="-140507232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="158472912"/>
+        <c:axId val="-139731232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16298,12 +17042,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196162464"/>
+        <c:crossAx val="-139712320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="196162464"/>
+        <c:axId val="-139712320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16313,7 +17057,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158472912"/>
+        <c:crossAx val="-139731232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16877,6 +17621,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -23193,6 +23977,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -26824,14 +28111,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26859,16 +28146,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -26930,6 +28217,43 @@
 </file>
 
 <file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -27885,7 +29209,7 @@
         <v>87.91</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D19:D30" si="3">SUM(B12:B24)</f>
+        <f t="shared" ref="D24:D29" si="3">SUM(B12:B24)</f>
         <v>217.24</v>
       </c>
     </row>
@@ -28244,7 +29568,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28430,6 +29754,196 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>555320.28023582674</v>
+      </c>
+      <c r="C2" s="3">
+        <v>554426.90331820911</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2">
+        <f>1000*1000*400</f>
+        <v>400000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1042164.3652863638</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1094998.6230802939</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1796331.5191971748</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2154386.6198458131</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2319200.8692457629</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2982233.693185308</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2879015.6023788098</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3954175.5342348167</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3787534.6100178245</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5411577.6021783985</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8" s="10">
+        <v>4573452.3371547693</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6978794.8968120627</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9" s="10">
+        <v>5979440.0541402427</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10407589.297376361</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>32</v>
+      </c>
+      <c r="B10" s="10">
+        <v>8584987.7624218818</v>
+      </c>
+      <c r="C10" s="3">
+        <v>12811950.577516289</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>48</v>
+      </c>
+      <c r="B11" s="10">
+        <v>12024386.658582272</v>
+      </c>
+      <c r="C11" s="3">
+        <v>16532234.116108444</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>64</v>
+      </c>
+      <c r="B12" s="10">
+        <v>10527138.568461798</v>
+      </c>
+      <c r="C12" s="3">
+        <v>17861809.254810676</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4">
+        <f>E2/C16</f>
+        <v>559322.5689756627</v>
+      </c>
+      <c r="C16" s="1">
+        <v>715.15083100000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -28606,7 +30120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -28790,7 +30304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -28979,11 +30493,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -29239,7 +30753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -30033,7 +31547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
@@ -30645,7 +32159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26:B36"/>
     </sheetView>
   </sheetViews>
@@ -31576,7 +33090,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/results/benchmarks.xlsx
+++ b/results/benchmarks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="820" yWindow="460" windowWidth="24780" windowHeight="15540" tabRatio="500" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="24780" windowHeight="15540" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="swift_fib" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="27">
   <si>
     <t>threads/processes</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>cilk</t>
+  </si>
+  <si>
+    <t>openmp w/ cutoff</t>
+  </si>
+  <si>
+    <t>openmp w/o cutoff</t>
+  </si>
+  <si>
+    <t>cilk w/ cutoff</t>
+  </si>
+  <si>
+    <t>cilk w/o cutoff</t>
   </si>
 </sst>
 </file>
@@ -207,7 +219,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -225,6 +237,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -487,8 +500,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196490208"/>
-        <c:axId val="196144560"/>
+        <c:axId val="-54921488"/>
+        <c:axId val="198562640"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -613,11 +626,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-112304112"/>
-        <c:axId val="-112701040"/>
+        <c:axId val="230609088"/>
+        <c:axId val="196722592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196490208"/>
+        <c:axId val="-54921488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -732,7 +745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196144560"/>
+        <c:crossAx val="198562640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -740,7 +753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196144560"/>
+        <c:axId val="198562640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,12 +891,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196490208"/>
+        <c:crossAx val="-54921488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-112701040"/>
+        <c:axId val="196722592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -984,12 +997,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-112304112"/>
+        <c:crossAx val="230609088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-112304112"/>
+        <c:axId val="230609088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -999,7 +1012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-112701040"/>
+        <c:crossAx val="196722592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1357,8 +1370,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-140093936"/>
-        <c:axId val="-92392832"/>
+        <c:axId val="-90268272"/>
+        <c:axId val="-90627616"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1489,11 +1502,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-92400096"/>
-        <c:axId val="-92393728"/>
+        <c:axId val="-90694672"/>
+        <c:axId val="-90659904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-140093936"/>
+        <c:axId val="-90268272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1608,7 +1621,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-92392832"/>
+        <c:crossAx val="-90627616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1616,7 +1629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-92392832"/>
+        <c:axId val="-90627616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1756,12 +1769,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-140093936"/>
+        <c:crossAx val="-90268272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-92393728"/>
+        <c:axId val="-90659904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1863,12 +1876,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-92400096"/>
+        <c:crossAx val="-90694672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-92400096"/>
+        <c:axId val="-90694672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1878,7 +1891,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-92393728"/>
+        <c:crossAx val="-90659904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2083,6 +2096,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2244,8 +2258,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="199074720"/>
-        <c:axId val="-112590320"/>
+        <c:axId val="-90859008"/>
+        <c:axId val="-90992624"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2376,11 +2390,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198547424"/>
-        <c:axId val="-112535104"/>
+        <c:axId val="-91060576"/>
+        <c:axId val="-90484336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="199074720"/>
+        <c:axId val="-90859008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,6 +2442,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2494,7 +2509,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-112590320"/>
+        <c:crossAx val="-90992624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2502,7 +2517,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-112590320"/>
+        <c:axId val="-90992624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2581,6 +2596,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2641,12 +2657,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199074720"/>
+        <c:crossAx val="-90859008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-112535104"/>
+        <c:axId val="-90484336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2687,6 +2703,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2747,12 +2764,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198547424"/>
+        <c:crossAx val="-91060576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="198547424"/>
+        <c:axId val="-91060576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2762,7 +2779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-112535104"/>
+        <c:crossAx val="-90484336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2779,6 +2796,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2990,6 +3008,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3151,8 +3170,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-112448976"/>
-        <c:axId val="-112694240"/>
+        <c:axId val="-90494496"/>
+        <c:axId val="-90544928"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3283,11 +3302,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143987632"/>
-        <c:axId val="-112300960"/>
+        <c:axId val="-90705008"/>
+        <c:axId val="-90625488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-112448976"/>
+        <c:axId val="-90494496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3335,6 +3354,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3401,7 +3421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-112694240"/>
+        <c:crossAx val="-90544928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3409,7 +3429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-112694240"/>
+        <c:axId val="-90544928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3488,6 +3508,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3548,12 +3569,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-112448976"/>
+        <c:crossAx val="-90494496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-112300960"/>
+        <c:axId val="-90625488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3594,6 +3615,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3654,12 +3676,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143987632"/>
+        <c:crossAx val="-90705008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="143987632"/>
+        <c:axId val="-90705008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3669,7 +3691,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-112300960"/>
+        <c:crossAx val="-90625488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3686,6 +3708,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3853,10 +3876,27 @@
               <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
               <a:t>Swift/T</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:t>(no</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:t>cutoff)</a:t>
+            </a:r>
             <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3971,37 +4011,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.81104002697646E6</c:v>
+                  <c:v>3.19721991471581E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.49944338205213E6</c:v>
+                  <c:v>6.12523069624653E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.52383901385072E7</c:v>
+                  <c:v>1.04971526014324E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.85908796359657E7</c:v>
+                  <c:v>1.39920743399749E7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.19255708279117E7</c:v>
+                  <c:v>1.56788409389477E7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.44777068714012E7</c:v>
+                  <c:v>1.82395030022641E7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.64990549750576E7</c:v>
+                  <c:v>2.064474708166E7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.95479661491364E7</c:v>
+                  <c:v>2.09263535586658E7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9623819158395E7</c:v>
+                  <c:v>1.87190466105043E7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.96930184532463E7</c:v>
+                  <c:v>1.54645517486173E7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.95645260784365E7</c:v>
+                  <c:v>1.346896607151E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4018,8 +4058,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198503824"/>
-        <c:axId val="198518592"/>
+        <c:axId val="-90943808"/>
+        <c:axId val="-90949936"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4098,42 +4138,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>quicksort_compare!$C$2:$C$12</c:f>
+              <c:f>quicksort_compare!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.68898844378706E6</c:v>
+                  <c:v>3.60159638652695E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.93950086780372E6</c:v>
+                  <c:v>6.75721683940597E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2392032827231E7</c:v>
+                  <c:v>1.20768823668282E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.58636860619808E7</c:v>
+                  <c:v>1.58844752819685E7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.94131735653622E7</c:v>
+                  <c:v>1.91344771256544E7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.31818540188732E7</c:v>
+                  <c:v>2.35438201629274E7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8183817904946E7</c:v>
+                  <c:v>2.8110113199862E7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.30557749958093E7</c:v>
+                  <c:v>3.00670423138959E7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.30746286858923E7</c:v>
+                  <c:v>3.02714328098758E7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.10417092704319E7</c:v>
+                  <c:v>2.86137161685893E7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.69325035719764E7</c:v>
+                  <c:v>2.57076977883565E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4214,7 +4254,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>quicksort_compare!$D$2:$D$12</c:f>
+              <c:f>quicksort_compare!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4263,751 +4303,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196106784"/>
-        <c:axId val="196788576"/>
+        <c:axId val="-90984656"/>
+        <c:axId val="-90969360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198503824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                  <a:t>#</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                  <a:t>of</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
-                  <a:t>threads</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="198518592"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="198518592"/>
-        <c:scaling>
-          <c:logBase val="10.0"/>
-          <c:orientation val="minMax"/>
-          <c:min val="100.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
-                  <a:t>#</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
-                  <a:t>of</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
-                  <a:t>tasks</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
-                  <a:t>per</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
-                  <a:t>second</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1800"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="198503824"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="196788576"/>
-        <c:scaling>
-          <c:logBase val="10.0"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196106784"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="196106784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196788576"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
-              <a:t>mdlite</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
-              <a:t>benchmark</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
-              <a:t>using</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
-              <a:t>openmp</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1800"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>throughput</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>openmp_mdlite!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>64.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>openmp_mdlite!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>555320.2802358267</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.04216436528636E6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.79633151919717E6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.31920086924576E6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.87901560237881E6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.78753461001782E6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.57345233715477E6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.97944005414024E6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.58498776242188E6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.20243866585823E7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.05271385684618E7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="196753856"/>
-        <c:axId val="196686704"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>time</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>openmp_mdlite!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>64.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>openmp_mdlite!$C$2:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>720.3050459999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>383.816616</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>222.676046</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>172.473202</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>138.936378</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>105.609596</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>87.461281</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>66.89589599999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>46.592961</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>33.26573</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37.99703</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-139997072"/>
-        <c:axId val="196565936"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="196753856"/>
+        <c:axId val="-90943808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5122,7 +4422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196686704"/>
+        <c:crossAx val="-90949936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5130,9 +4430,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196686704"/>
+        <c:axId val="-90949936"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
+          <c:min val="100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5270,12 +4572,750 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196753856"/>
+        <c:crossAx val="-90943808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196565936"/>
+        <c:axId val="-90969360"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-90984656"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-90984656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-90969360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+              <a:t>mdlite</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+              <a:t>benchmark</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+              <a:t>using</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+              <a:t>openmp</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>throughput</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>openmp_mdlite!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>openmp_mdlite!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>555320.2802358267</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.04216436528636E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.79633151919717E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.31920086924576E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.87901560237881E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.78753461001782E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.57345233715477E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.97944005414024E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.58498776242188E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.20243866585823E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.05271385684618E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="143857184"/>
+        <c:axId val="143203776"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>time</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>openmp_mdlite!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>openmp_mdlite!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>720.3050459999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>383.816616</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>222.676046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>172.473202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138.936378</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.609596</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.461281</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.89589599999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.592961</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.26573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.99703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="143999664"/>
+        <c:axId val="266191984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="143857184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+                  <a:t>of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+                  <a:t>threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="143203776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="143203776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+                  <a:t>of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+                  <a:t>tasks</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+                  <a:t>per</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+                  <a:t>second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="143857184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="266191984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5316,7 +5356,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5377,12 +5416,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-139997072"/>
+        <c:crossAx val="143999664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-139997072"/>
+        <c:axId val="143999664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5392,7 +5431,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196565936"/>
+        <c:crossAx val="266191984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5409,7 +5448,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5541,7 +5579,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5703,8 +5740,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-92725856"/>
-        <c:axId val="-92741728"/>
+        <c:axId val="-91151632"/>
+        <c:axId val="-91161664"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5835,11 +5872,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-92404320"/>
-        <c:axId val="-92426560"/>
+        <c:axId val="-91190832"/>
+        <c:axId val="-91176576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-92725856"/>
+        <c:axId val="-91151632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5887,7 +5924,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5954,7 +5990,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-92741728"/>
+        <c:crossAx val="-91161664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5962,7 +5998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-92741728"/>
+        <c:axId val="-91161664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6041,7 +6077,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6102,12 +6137,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-92725856"/>
+        <c:crossAx val="-91151632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-92426560"/>
+        <c:axId val="-91176576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6148,7 +6183,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6209,12 +6243,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-92404320"/>
+        <c:crossAx val="-91190832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-92404320"/>
+        <c:axId val="-91190832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6224,7 +6258,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-92426560"/>
+        <c:crossAx val="-91176576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6241,7 +6275,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6535,8 +6568,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-58691776"/>
-        <c:axId val="-58566080"/>
+        <c:axId val="-83926720"/>
+        <c:axId val="-84041744"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6667,11 +6700,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-58651792"/>
-        <c:axId val="-58627792"/>
+        <c:axId val="-84508240"/>
+        <c:axId val="-84121056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-58691776"/>
+        <c:axId val="-83926720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6786,7 +6819,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-58566080"/>
+        <c:crossAx val="-84041744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6794,7 +6827,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-58566080"/>
+        <c:axId val="-84041744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6934,12 +6967,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-58691776"/>
+        <c:crossAx val="-83926720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-58627792"/>
+        <c:axId val="-84121056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6949,12 +6982,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-58651792"/>
+        <c:crossAx val="-84508240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-58651792"/>
+        <c:axId val="-84508240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6964,7 +6997,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-58627792"/>
+        <c:crossAx val="-84121056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7109,6 +7142,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7296,8 +7330,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-112628544"/>
-        <c:axId val="198590768"/>
+        <c:axId val="-140163776"/>
+        <c:axId val="-140175840"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7416,11 +7450,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196922224"/>
-        <c:axId val="-113108944"/>
+        <c:axId val="-140201376"/>
+        <c:axId val="-140190944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-112628544"/>
+        <c:axId val="-140163776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7468,6 +7502,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7534,7 +7569,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198590768"/>
+        <c:crossAx val="-140175840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7542,7 +7577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198590768"/>
+        <c:axId val="-140175840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7621,6 +7656,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7681,12 +7717,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-112628544"/>
+        <c:crossAx val="-140163776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-113108944"/>
+        <c:axId val="-140190944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7727,6 +7763,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7787,12 +7824,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196922224"/>
+        <c:crossAx val="-140201376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="196922224"/>
+        <c:axId val="-140201376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7802,7 +7839,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-113108944"/>
+        <c:crossAx val="-140190944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7915,6 +7952,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8108,8 +8146,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-55114496"/>
-        <c:axId val="-65887664"/>
+        <c:axId val="-84877296"/>
+        <c:axId val="-84104416"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8231,11 +8269,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-92363504"/>
-        <c:axId val="-92881664"/>
+        <c:axId val="190784960"/>
+        <c:axId val="-84649024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-55114496"/>
+        <c:axId val="-84877296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8283,6 +8321,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8349,7 +8388,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-65887664"/>
+        <c:crossAx val="-84104416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8357,7 +8396,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-65887664"/>
+        <c:axId val="-84104416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8436,6 +8475,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8496,12 +8536,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-55114496"/>
+        <c:crossAx val="-84877296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-92881664"/>
+        <c:axId val="-84649024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8542,6 +8582,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8602,12 +8643,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-92363504"/>
+        <c:crossAx val="190784960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-92363504"/>
+        <c:axId val="190784960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8617,7 +8658,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-92881664"/>
+        <c:crossAx val="-84649024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8738,6 +8779,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8931,8 +8973,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-92796432"/>
-        <c:axId val="-140157088"/>
+        <c:axId val="-84087056"/>
+        <c:axId val="-83909808"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9054,11 +9096,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-140322448"/>
-        <c:axId val="-140319680"/>
+        <c:axId val="-84734512"/>
+        <c:axId val="-83955632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-92796432"/>
+        <c:axId val="-84087056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9106,6 +9148,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9172,7 +9215,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-140157088"/>
+        <c:crossAx val="-83909808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9180,7 +9223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-140157088"/>
+        <c:axId val="-83909808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9259,6 +9302,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9319,12 +9363,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-92796432"/>
+        <c:crossAx val="-84087056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-140319680"/>
+        <c:axId val="-83955632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9365,6 +9409,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9425,12 +9470,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-140322448"/>
+        <c:crossAx val="-84734512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-140322448"/>
+        <c:axId val="-84734512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9440,7 +9485,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-140319680"/>
+        <c:crossAx val="-83955632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9557,6 +9602,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9712,8 +9758,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-188039344"/>
-        <c:axId val="-188466656"/>
+        <c:axId val="-65081696"/>
+        <c:axId val="-65293552"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9838,11 +9884,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-113163008"/>
-        <c:axId val="155451648"/>
+        <c:axId val="-65390000"/>
+        <c:axId val="-65302256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-188039344"/>
+        <c:axId val="-65081696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9891,6 +9937,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9957,7 +10004,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-188466656"/>
+        <c:crossAx val="-65293552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9965,7 +10012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-188466656"/>
+        <c:axId val="-65293552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10044,6 +10091,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10104,12 +10152,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-188039344"/>
+        <c:crossAx val="-65081696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155451648"/>
+        <c:axId val="-65302256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10150,6 +10198,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10210,12 +10259,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113163008"/>
+        <c:crossAx val="-65390000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-113163008"/>
+        <c:axId val="-65390000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10225,7 +10274,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155451648"/>
+        <c:crossAx val="-65302256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10242,6 +10291,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10405,7 +10455,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10567,8 +10616,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="198285472"/>
-        <c:axId val="198560224"/>
+        <c:axId val="-84004752"/>
+        <c:axId val="-84021648"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10812,11 +10861,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-112475696"/>
-        <c:axId val="143982224"/>
+        <c:axId val="-84079968"/>
+        <c:axId val="-84049520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198285472"/>
+        <c:axId val="-84004752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10864,7 +10913,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10931,7 +10979,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198560224"/>
+        <c:crossAx val="-84021648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10939,7 +10987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198560224"/>
+        <c:axId val="-84021648"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -11020,7 +11068,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11081,12 +11128,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198285472"/>
+        <c:crossAx val="-84004752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="143982224"/>
+        <c:axId val="-84049520"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -11097,12 +11144,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-112475696"/>
+        <c:crossAx val="-84079968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-112475696"/>
+        <c:axId val="-84079968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11112,7 +11159,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143982224"/>
+        <c:crossAx val="-84049520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11129,7 +11176,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11269,6 +11315,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11380,7 +11427,7 @@
             <c:numRef>
               <c:f>openmp_fib!$D$2:$D$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.02840230038292E7</c:v>
@@ -11430,8 +11477,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143465856"/>
-        <c:axId val="143457824"/>
+        <c:axId val="-65034864"/>
+        <c:axId val="-65057568"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11562,11 +11609,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-112768224"/>
-        <c:axId val="-112311120"/>
+        <c:axId val="-65113008"/>
+        <c:axId val="-65070416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143465856"/>
+        <c:axId val="-65034864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11615,6 +11662,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11681,7 +11729,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143457824"/>
+        <c:crossAx val="-65057568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11689,7 +11737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143457824"/>
+        <c:axId val="-65057568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11768,6 +11816,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11828,12 +11877,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="143465856"/>
+        <c:crossAx val="-65034864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-112311120"/>
+        <c:axId val="-65070416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11874,6 +11923,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11934,12 +11984,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-112768224"/>
+        <c:crossAx val="-65113008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-112768224"/>
+        <c:axId val="-65113008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11949,7 +11999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-112311120"/>
+        <c:crossAx val="-65070416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11966,6 +12016,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12145,6 +12196,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12306,8 +12358,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-112904896"/>
-        <c:axId val="-112490480"/>
+        <c:axId val="-65316016"/>
+        <c:axId val="-65356624"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12438,11 +12490,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-112577968"/>
-        <c:axId val="-112623648"/>
+        <c:axId val="-65526544"/>
+        <c:axId val="-65505856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-112904896"/>
+        <c:axId val="-65316016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12491,6 +12543,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12557,7 +12610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-112490480"/>
+        <c:crossAx val="-65356624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12565,7 +12618,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-112490480"/>
+        <c:axId val="-65356624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12644,6 +12697,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12704,12 +12758,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-112904896"/>
+        <c:crossAx val="-65316016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-112623648"/>
+        <c:axId val="-65505856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12750,6 +12804,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12810,12 +12865,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-112577968"/>
+        <c:crossAx val="-65526544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-112577968"/>
+        <c:axId val="-65526544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12825,7 +12880,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-112623648"/>
+        <c:crossAx val="-65505856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12842,6 +12897,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12981,6 +13037,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13142,8 +13199,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-140097120"/>
-        <c:axId val="-140202752"/>
+        <c:axId val="-65901552"/>
+        <c:axId val="-65936464"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13274,11 +13331,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-139848624"/>
-        <c:axId val="266059920"/>
+        <c:axId val="-65986928"/>
+        <c:axId val="-65967216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-140097120"/>
+        <c:axId val="-65901552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13327,6 +13384,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13393,7 +13451,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-140202752"/>
+        <c:crossAx val="-65936464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13401,7 +13459,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-140202752"/>
+        <c:axId val="-65936464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13480,6 +13538,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13540,12 +13599,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-140097120"/>
+        <c:crossAx val="-65901552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="266059920"/>
+        <c:axId val="-65967216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13586,6 +13645,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -13646,12 +13706,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-139848624"/>
+        <c:crossAx val="-65986928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-139848624"/>
+        <c:axId val="-65986928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13661,7 +13721,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266059920"/>
+        <c:crossAx val="-65967216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13678,6 +13738,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13869,6 +13930,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14030,8 +14092,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-139664176"/>
-        <c:axId val="-140269568"/>
+        <c:axId val="-65213440"/>
+        <c:axId val="-65694272"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14162,11 +14224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-140455568"/>
-        <c:axId val="-140312240"/>
+        <c:axId val="-66014752"/>
+        <c:axId val="-65740656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-139664176"/>
+        <c:axId val="-65213440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14215,6 +14277,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14281,7 +14344,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-140269568"/>
+        <c:crossAx val="-65694272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14289,7 +14352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-140269568"/>
+        <c:axId val="-65694272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14368,6 +14431,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14428,12 +14492,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-139664176"/>
+        <c:crossAx val="-65213440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-140312240"/>
+        <c:axId val="-65740656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14474,6 +14538,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14534,12 +14599,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-140455568"/>
+        <c:crossAx val="-66014752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-140455568"/>
+        <c:axId val="-66014752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14549,7 +14614,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-140312240"/>
+        <c:crossAx val="-65740656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14566,6 +14631,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14725,6 +14791,22 @@
               <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
               <a:t>Swift/T</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:t>(no</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+              <a:t>cutoff)</a:t>
+            </a:r>
             <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
         </c:rich>
@@ -14851,40 +14933,40 @@
             <c:numRef>
               <c:f>fib_compare!$B$2:$B$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.81287337E8</c:v>
+                  <c:v>1.02840230038292E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.53462222E8</c:v>
+                  <c:v>2.63452467888479E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.86709662E8</c:v>
+                  <c:v>1.15367252164395E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.09748821E8</c:v>
+                  <c:v>917843.8229792694</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.035361273E9</c:v>
+                  <c:v>780906.7946761166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.355262768E9</c:v>
+                  <c:v>648687.7474627235</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.713057949E9</c:v>
+                  <c:v>569775.6474246422</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.358229791E9</c:v>
+                  <c:v>452153.9101392267</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.014229637E9</c:v>
+                  <c:v>391443.5021022748</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.012306224E9</c:v>
+                  <c:v>338273.9411941773</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.157656591E9</c:v>
+                  <c:v>412820.7887911283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14901,8 +14983,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-112554480"/>
-        <c:axId val="-112515344"/>
+        <c:axId val="-90322048"/>
+        <c:axId val="-90530080"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14939,42 +15021,42 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>fib_compare!$C$2:$C$12</c:f>
+              <c:f>fib_compare!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6.72908790894326E7</c:v>
+                  <c:v>3.13065651284176E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.19540594713051E8</c:v>
+                  <c:v>6.30085751198972E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.20793830682191E8</c:v>
+                  <c:v>1.25452071245961E8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.83564108717347E8</c:v>
+                  <c:v>1.86292116777328E8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.57142479497647E8</c:v>
+                  <c:v>2.48507459200597E8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.38499388681602E8</c:v>
+                  <c:v>3.12152361401934E8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.74893687520493E8</c:v>
+                  <c:v>3.66081574776082E8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.84603628904825E8</c:v>
+                  <c:v>4.76849642264276E8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.79939434331248E8</c:v>
+                  <c:v>5.69919423427536E8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.15128479371756E9</c:v>
+                  <c:v>6.18150928901665E8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.22733131044174E9</c:v>
+                  <c:v>6.69418588054841E8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15013,7 +15095,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>fib_compare!$D$2:$D$12</c:f>
+              <c:f>fib_compare!$F$2:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -15062,11 +15144,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196384528"/>
-        <c:axId val="144003184"/>
+        <c:axId val="-91010160"/>
+        <c:axId val="-90897584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-112554480"/>
+        <c:axId val="-90322048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15182,7 +15264,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-112515344"/>
+        <c:crossAx val="-90530080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15190,7 +15272,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-112515344"/>
+        <c:axId val="-90530080"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -15339,12 +15421,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-112554480"/>
+        <c:crossAx val="-90322048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144003184"/>
+        <c:axId val="-90897584"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -15355,12 +15437,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196384528"/>
+        <c:crossAx val="-91010160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="196384528"/>
+        <c:axId val="-91010160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15370,7 +15452,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144003184"/>
+        <c:crossAx val="-90897584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15543,6 +15625,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15698,8 +15781,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-112225824"/>
-        <c:axId val="198330896"/>
+        <c:axId val="190690384"/>
+        <c:axId val="190583696"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -15824,11 +15907,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-113090048"/>
-        <c:axId val="-112221312"/>
+        <c:axId val="190262416"/>
+        <c:axId val="190235072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-112225824"/>
+        <c:axId val="190690384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15876,6 +15959,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15942,7 +16026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198330896"/>
+        <c:crossAx val="190583696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15950,7 +16034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198330896"/>
+        <c:axId val="190583696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16029,6 +16113,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16089,12 +16174,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-112225824"/>
+        <c:crossAx val="190690384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-112221312"/>
+        <c:axId val="190235072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16135,6 +16220,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16195,12 +16281,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-113090048"/>
+        <c:crossAx val="190262416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-113090048"/>
+        <c:axId val="190262416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16210,7 +16296,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-112221312"/>
+        <c:crossAx val="190235072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16227,6 +16313,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16536,8 +16623,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-140507232"/>
-        <c:axId val="-140165728"/>
+        <c:axId val="221710400"/>
+        <c:axId val="221841536"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -16668,11 +16755,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-139712320"/>
-        <c:axId val="-139731232"/>
+        <c:axId val="266234208"/>
+        <c:axId val="143513504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-140507232"/>
+        <c:axId val="221710400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16787,7 +16874,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-140165728"/>
+        <c:crossAx val="221841536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16795,7 +16882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-140165728"/>
+        <c:axId val="221841536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16935,12 +17022,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-140507232"/>
+        <c:crossAx val="221710400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-139731232"/>
+        <c:axId val="143513504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17042,12 +17129,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-139712320"/>
+        <c:crossAx val="266234208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-139712320"/>
+        <c:axId val="266234208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17057,7 +17144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-139731232"/>
+        <c:crossAx val="143513504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -28432,16 +28519,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28644,16 +28731,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28979,7 +29066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="B43" sqref="B43:B52"/>
     </sheetView>
   </sheetViews>
@@ -29757,7 +29844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -30769,8 +30856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30816,7 +30903,7 @@
       <c r="C2">
         <v>0.12337099999999999</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="11">
         <f>$E$23/E2</f>
         <v>10284023.003829196</v>
       </c>
@@ -30834,7 +30921,7 @@
       <c r="C3">
         <v>0.48158600000000001</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="11">
         <f t="shared" ref="D3:D12" si="0">$E$23/E3</f>
         <v>2634524.6788847926</v>
       </c>
@@ -30853,7 +30940,7 @@
       <c r="C4">
         <v>1.0997490000000001</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="11">
         <f t="shared" si="0"/>
         <v>1153672.5216439494</v>
       </c>
@@ -30872,7 +30959,7 @@
       <c r="C5">
         <v>1.3823160000000001</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="11">
         <f t="shared" si="0"/>
         <v>917843.82297926943</v>
       </c>
@@ -30891,7 +30978,7 @@
       <c r="C6">
         <v>1.624714</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="11">
         <f t="shared" si="0"/>
         <v>780906.79467611655</v>
       </c>
@@ -30910,7 +30997,7 @@
       <c r="C7">
         <v>1.9558720000000001</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>648687.74746272352</v>
       </c>
@@ -30929,7 +31016,7 @@
       <c r="C8">
         <v>2.2267540000000001</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="11">
         <f t="shared" si="0"/>
         <v>569775.64742464223</v>
       </c>
@@ -30948,7 +31035,7 @@
       <c r="C9">
         <v>2.8060139999999998</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
         <v>452153.9101392267</v>
       </c>
@@ -30967,7 +31054,7 @@
       <c r="C10">
         <v>3.241209</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="11">
         <f t="shared" si="0"/>
         <v>391443.50210227486</v>
       </c>
@@ -30986,7 +31073,7 @@
       <c r="C11">
         <v>3.7506590000000002</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="11">
         <f t="shared" si="0"/>
         <v>338273.94119417731</v>
       </c>
@@ -31005,7 +31092,7 @@
       <c r="C12">
         <v>3.0733679999999999</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="11">
         <f t="shared" si="0"/>
         <v>412820.78879112826</v>
       </c>
@@ -31208,8 +31295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31545,389 +31632,349 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="4" width="17.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="3"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>6</v>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
+        <v>10284023.003829196</v>
+      </c>
+      <c r="C2" s="1">
         <v>281287337</v>
       </c>
-      <c r="C2" s="10">
+      <c r="D2" s="10">
+        <v>31306565.128417563</v>
+      </c>
+      <c r="E2" s="10">
         <v>67290879.089432552</v>
       </c>
-      <c r="F2">
-        <f>LOG10(B2)</f>
-        <v>8.4491501815259902</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:H12" si="0">LOG10(C2)</f>
-        <v>7.8279562019717615</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
+        <v>2634524.6788847926</v>
+      </c>
+      <c r="C3" s="1">
         <v>453462222</v>
       </c>
-      <c r="C3" s="10">
+      <c r="D3" s="10">
+        <v>63008575.119897157</v>
+      </c>
+      <c r="E3" s="10">
         <v>119540594.71305111</v>
       </c>
-      <c r="D3" s="3">
+      <c r="F3" s="3">
         <v>53327.910866325808</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F12" si="1">LOG10(B3)</f>
-        <v>8.6565411117702187</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
-        <v>8.0775154121129713</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="0"/>
-        <v>4.7269545704258311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
+        <v>1153672.5216439494</v>
+      </c>
+      <c r="C4" s="1">
         <v>586709662</v>
       </c>
-      <c r="C4" s="10">
+      <c r="D4" s="10">
+        <v>125452071.24596071</v>
+      </c>
+      <c r="E4" s="10">
         <v>220793830.68219092</v>
       </c>
-      <c r="D4" s="3">
+      <c r="F4" s="3">
         <v>128843.18986318599</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>8.7684232402850757</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>8.3439869343736781</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>5.1100614684204775</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
+        <v>917843.82297926943</v>
+      </c>
+      <c r="C5" s="1">
         <v>809748821</v>
       </c>
-      <c r="C5" s="10">
+      <c r="D5" s="10">
+        <v>186292116.77732825</v>
+      </c>
+      <c r="E5" s="10">
         <v>283564108.7173475</v>
       </c>
-      <c r="D5" s="3">
+      <c r="F5" s="3">
         <v>130952.43393620022</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>8.9083503243468432</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>8.4526512604587509</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>5.1171135748134668</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
+        <v>780906.79467611655</v>
+      </c>
+      <c r="C6" s="1">
         <v>1035361273</v>
       </c>
-      <c r="C6" s="10">
+      <c r="D6" s="10">
+        <v>248507459.20059657</v>
+      </c>
+      <c r="E6" s="10">
         <v>357142479.49764711</v>
       </c>
-      <c r="D6" s="3">
+      <c r="F6" s="3">
         <v>131125.17890755236</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>9.0150919164533061</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>8.5528415094316923</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>5.117686093754596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>12</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
+        <v>648687.74746272352</v>
+      </c>
+      <c r="C7" s="1">
         <v>1355262768</v>
       </c>
-      <c r="C7" s="10">
+      <c r="D7" s="10">
+        <v>312152361.40193433</v>
+      </c>
+      <c r="E7" s="10">
         <v>538499388.681602</v>
       </c>
-      <c r="D7" s="3">
+      <c r="F7" s="3">
         <v>128299.62507138438</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>9.1320235074824794</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>8.7311852146119815</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>5.108225387242685</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>16</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
+        <v>569775.64742464223</v>
+      </c>
+      <c r="C8" s="1">
         <v>1713057949</v>
       </c>
-      <c r="C8" s="10">
+      <c r="D8" s="10">
+        <v>366081574.77608234</v>
+      </c>
+      <c r="E8" s="10">
         <v>674893687.52049255</v>
       </c>
-      <c r="D8" s="3">
+      <c r="F8" s="3">
         <v>127923.04990271467</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>9.2337720544455202</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>8.8292353660761371</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>5.1069488051794645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>24</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
+        <v>452153.9101392267</v>
+      </c>
+      <c r="C9" s="1">
         <v>2358229791</v>
       </c>
-      <c r="C9" s="10">
+      <c r="D9" s="10">
+        <v>476849642.26427644</v>
+      </c>
+      <c r="E9" s="10">
         <v>884603628.90482473</v>
       </c>
-      <c r="D9" s="3">
+      <c r="F9" s="3">
         <v>125051.89449044919</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>9.3725861214125548</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>8.9467487166412134</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>5.097090275518867</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>32</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
+        <v>391443.50210227486</v>
+      </c>
+      <c r="C10" s="1">
         <v>3014229637</v>
       </c>
-      <c r="C10" s="10">
+      <c r="D10" s="10">
+        <v>569919423.42753613</v>
+      </c>
+      <c r="E10" s="10">
         <v>979939434.33124793</v>
       </c>
-      <c r="D10" s="3">
+      <c r="F10" s="3">
         <v>108661.86063007091</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>9.4791763356637198</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>8.9911992347245757</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>5.036077137237867</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>48</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
+        <v>338273.94119417731</v>
+      </c>
+      <c r="C11" s="1">
         <v>4012306224</v>
       </c>
-      <c r="C11" s="10">
+      <c r="D11" s="10">
+        <v>618150928.90166533</v>
+      </c>
+      <c r="E11" s="10">
         <v>1151284793.7175632</v>
       </c>
-      <c r="D11" s="3">
+      <c r="F11" s="3">
         <v>84138.525296442036</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>9.603394071486532</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>9.0611827684958541</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>4.9249948958289416</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>64</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
+        <v>412820.78879112826</v>
+      </c>
+      <c r="C12" s="1">
         <v>5157656591</v>
       </c>
-      <c r="C12" s="10">
+      <c r="D12" s="10">
+        <v>669418588.05484104</v>
+      </c>
+      <c r="E12" s="10">
         <v>1227331310.4417431</v>
       </c>
-      <c r="D12" s="3">
+      <c r="F12" s="3">
         <v>61826.900467141786</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>9.7124524224086084</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>9.0889618136432997</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>4.7911774748061999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2"/>
+      <c r="C17" s="4">
         <v>299520547</v>
       </c>
-      <c r="C17" s="10">
+      <c r="D17" s="4"/>
+      <c r="E17" s="10">
         <v>19.839808000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="9"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C30" s="10"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C31" s="10"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C32" s="10"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" s="10"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" s="10"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" s="10"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" s="10"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" s="10"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" s="10"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" s="10"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31941,7 +31988,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32160,7 +32207,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B36"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32495,7 +32542,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B37"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32827,256 +32874,329 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="3" customWidth="1"/>
+    <col min="3" max="4" width="19.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="3">
+        <v>3197219.9147158149</v>
+      </c>
+      <c r="C2" s="10">
         <v>3811040.0269764639</v>
       </c>
-      <c r="C2" s="10">
+      <c r="D2" s="10">
+        <v>3601596.3865269478</v>
+      </c>
+      <c r="E2" s="10">
         <v>3688988.4437870621</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="3">
+        <v>6125230.6962465281</v>
+      </c>
+      <c r="C3" s="10">
         <v>7499443.3820521301</v>
       </c>
-      <c r="C3" s="10">
+      <c r="D3" s="10">
+        <v>6757216.8394059734</v>
+      </c>
+      <c r="E3" s="10">
         <v>6939500.8678037245</v>
       </c>
-      <c r="D3" s="3">
+      <c r="F3" s="3">
         <v>368.324101644628</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="3">
+        <v>10497152.601432435</v>
+      </c>
+      <c r="C4" s="10">
         <v>15238390.138507165</v>
       </c>
-      <c r="C4" s="10">
+      <c r="D4" s="10">
+        <v>12076882.366828239</v>
+      </c>
+      <c r="E4" s="10">
         <v>12392032.827230982</v>
       </c>
-      <c r="D4" s="3">
+      <c r="F4" s="3">
         <v>678.21671271749688</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="3">
+        <v>13992074.33997488</v>
+      </c>
+      <c r="C5" s="10">
         <v>18590879.635965653</v>
       </c>
-      <c r="C5" s="10">
+      <c r="D5" s="10">
+        <v>15884475.281968545</v>
+      </c>
+      <c r="E5" s="10">
         <v>15863686.061980832</v>
       </c>
-      <c r="D5" s="3">
+      <c r="F5" s="3">
         <v>759.79921623882694</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="3">
+        <v>15678840.938947711</v>
+      </c>
+      <c r="C6" s="10">
         <v>21925570.827911697</v>
       </c>
-      <c r="C6" s="10">
+      <c r="D6" s="10">
+        <v>19134477.125654429</v>
+      </c>
+      <c r="E6" s="10">
         <v>19413173.56536223</v>
       </c>
-      <c r="D6" s="3">
+      <c r="F6" s="3">
         <v>792.0809349380778</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>12</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="3">
+        <v>18239503.002264146</v>
+      </c>
+      <c r="C7" s="10">
         <v>24477706.871401232</v>
       </c>
-      <c r="C7" s="10">
+      <c r="D7" s="10">
+        <v>23543820.162927397</v>
+      </c>
+      <c r="E7" s="10">
         <v>23181854.018873218</v>
       </c>
-      <c r="D7" s="3">
+      <c r="F7" s="3">
         <v>797.43612257441396</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>16</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="3">
+        <v>20644747.08166004</v>
+      </c>
+      <c r="C8" s="10">
         <v>26499054.975057621</v>
       </c>
-      <c r="C8" s="10">
+      <c r="D8" s="10">
+        <v>28110113.199861977</v>
+      </c>
+      <c r="E8" s="10">
         <v>28183817.904946033</v>
       </c>
-      <c r="D8" s="3">
+      <c r="F8" s="3">
         <v>774.85552117900102</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>24</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="3">
+        <v>20926353.558665816</v>
+      </c>
+      <c r="C9" s="10">
         <v>29547966.149136391</v>
       </c>
-      <c r="C9" s="10">
+      <c r="D9" s="10">
+        <v>30067042.313895885</v>
+      </c>
+      <c r="E9" s="10">
         <v>33055774.995809305</v>
       </c>
-      <c r="D9" s="3">
+      <c r="F9" s="3">
         <v>806.87742858612444</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>32</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="3">
+        <v>18719046.610504251</v>
+      </c>
+      <c r="C10" s="10">
         <v>29623819.158395007</v>
       </c>
-      <c r="C10" s="10">
+      <c r="D10" s="10">
+        <v>30271432.809875771</v>
+      </c>
+      <c r="E10" s="10">
         <v>33074628.685892254</v>
       </c>
-      <c r="D10" s="3">
+      <c r="F10" s="3">
         <v>654.97844042268912</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>48</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="3">
+        <v>15464551.748617304</v>
+      </c>
+      <c r="C11" s="10">
         <v>29693018.453246251</v>
       </c>
-      <c r="C11" s="10">
+      <c r="D11" s="10">
+        <v>28613716.168589324</v>
+      </c>
+      <c r="E11" s="10">
         <v>31041709.27043188</v>
       </c>
-      <c r="D11" s="3">
+      <c r="F11" s="3">
         <v>530.6929596870425</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>64</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="3">
+        <v>13468966.071509985</v>
+      </c>
+      <c r="C12" s="10">
         <v>29564526.078436516</v>
       </c>
-      <c r="C12" s="10">
+      <c r="D12" s="10">
+        <v>25707697.788356479</v>
+      </c>
+      <c r="E12" s="10">
         <v>26932503.571976352</v>
       </c>
-      <c r="D12" s="3">
+      <c r="F12" s="3">
         <v>140.2128568944475</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C13" s="7"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="3">
-        <f>D23/C17</f>
+      <c r="C17" s="3">
+        <f>F23/E17</f>
         <v>3814198.3385640555</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>121.445308</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F23">
         <v>463216492</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="8"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="8"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E37" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
